--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-100_original/ori5/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-100_original/ori5/67/word_level_predictions_67.xlsx
@@ -3385,7 +3385,7 @@
       </c>
       <c r="F57" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>O</t>
         </is>
       </c>
       <c r="G57" s="2" t="b">
@@ -3409,7 +3409,7 @@
       </c>
       <c r="L57" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Missed_B-NonEvent</t>
         </is>
       </c>
     </row>
@@ -4714,210 +4714,210 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="n">
+      <c r="A83" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="C83" s="2" t="inlineStr">
         <is>
           <t>Backward</t>
         </is>
       </c>
-      <c r="D83" t="n">
+      <c r="D83" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="E83" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="F83" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G83" t="b">
-        <v>1</v>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I83" t="b">
-        <v>1</v>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K83" t="b">
-        <v>1</v>
-      </c>
-      <c r="L83" t="inlineStr">
+      <c r="G83" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H83" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I83" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J83" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K83" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L83" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="n">
+      <c r="A84" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C84" s="2" t="inlineStr">
         <is>
           <t>obstacle</t>
         </is>
       </c>
-      <c r="D84" t="n">
+      <c r="D84" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G84" t="b">
-        <v>1</v>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I84" t="b">
-        <v>1</v>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K84" t="b">
-        <v>1</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E84" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F84" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G84" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H84" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I84" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J84" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K84" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L84" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="n">
+      <c r="A85" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="C85" s="2" t="inlineStr">
         <is>
           <t>avoidance</t>
         </is>
       </c>
-      <c r="D85" t="n">
+      <c r="D85" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G85" t="b">
-        <v>1</v>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I85" t="b">
-        <v>1</v>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K85" t="b">
-        <v>1</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E85" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F85" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G85" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H85" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I85" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J85" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K85" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L85" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="n">
+      <c r="A86" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="C86" s="2" t="inlineStr">
         <is>
           <t>unavailable</t>
         </is>
       </c>
-      <c r="D86" t="n">
+      <c r="D86" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="E86" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G86" t="b">
-        <v>1</v>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I86" t="b">
-        <v>1</v>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K86" t="b">
-        <v>1</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F86" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G86" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H86" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I86" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J86" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K86" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L86" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -9290,522 +9290,522 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="2" t="n">
+      <c r="A171" t="n">
         <v>5</v>
       </c>
-      <c r="B171" s="2" t="inlineStr">
+      <c r="B171" t="inlineStr">
         <is>
           <t>Propeller rotating too fast . Wind resistance affected . Return to home and land promptly . Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C171" s="2" t="inlineStr">
+      <c r="C171" t="inlineStr">
         <is>
           <t>Check</t>
         </is>
       </c>
-      <c r="D171" s="2" t="n">
+      <c r="D171" t="n">
         <v>16</v>
       </c>
-      <c r="E171" s="2" t="inlineStr">
+      <c r="E171" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F171" s="2" t="inlineStr">
+      <c r="F171" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G171" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H171" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I171" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J171" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K171" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L171" s="2" t="inlineStr">
+      <c r="G171" t="b">
+        <v>1</v>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I171" t="b">
+        <v>1</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K171" t="b">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="2" t="n">
+      <c r="A172" t="n">
         <v>5</v>
       </c>
-      <c r="B172" s="2" t="inlineStr">
+      <c r="B172" t="inlineStr">
         <is>
           <t>Propeller rotating too fast . Wind resistance affected . Return to home and land promptly . Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C172" s="2" t="inlineStr">
+      <c r="C172" t="inlineStr">
         <is>
           <t>whether</t>
         </is>
       </c>
-      <c r="D172" s="2" t="n">
+      <c r="D172" t="n">
         <v>17</v>
       </c>
-      <c r="E172" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F172" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G172" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H172" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I172" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J172" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K172" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L172" s="2" t="inlineStr">
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G172" t="b">
+        <v>1</v>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I172" t="b">
+        <v>1</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K172" t="b">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="2" t="n">
+      <c r="A173" t="n">
         <v>5</v>
       </c>
-      <c r="B173" s="2" t="inlineStr">
+      <c r="B173" t="inlineStr">
         <is>
           <t>Propeller rotating too fast . Wind resistance affected . Return to home and land promptly . Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C173" s="2" t="inlineStr">
+      <c r="C173" t="inlineStr">
         <is>
           <t>propeller</t>
         </is>
       </c>
-      <c r="D173" s="2" t="n">
+      <c r="D173" t="n">
         <v>18</v>
       </c>
-      <c r="E173" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F173" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G173" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H173" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I173" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J173" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K173" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L173" s="2" t="inlineStr">
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G173" t="b">
+        <v>1</v>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I173" t="b">
+        <v>1</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K173" t="b">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="2" t="n">
+      <c r="A174" t="n">
         <v>5</v>
       </c>
-      <c r="B174" s="2" t="inlineStr">
+      <c r="B174" t="inlineStr">
         <is>
           <t>Propeller rotating too fast . Wind resistance affected . Return to home and land promptly . Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C174" s="2" t="inlineStr">
+      <c r="C174" t="inlineStr">
         <is>
           <t>on</t>
         </is>
       </c>
-      <c r="D174" s="2" t="n">
+      <c r="D174" t="n">
         <v>19</v>
       </c>
-      <c r="E174" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F174" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G174" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H174" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I174" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J174" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K174" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L174" s="2" t="inlineStr">
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G174" t="b">
+        <v>1</v>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I174" t="b">
+        <v>1</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K174" t="b">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="2" t="n">
+      <c r="A175" t="n">
         <v>5</v>
       </c>
-      <c r="B175" s="2" t="inlineStr">
+      <c r="B175" t="inlineStr">
         <is>
           <t>Propeller rotating too fast . Wind resistance affected . Return to home and land promptly . Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C175" s="2" t="inlineStr">
+      <c r="C175" t="inlineStr">
         <is>
           <t>beeping</t>
         </is>
       </c>
-      <c r="D175" s="2" t="n">
+      <c r="D175" t="n">
         <v>20</v>
       </c>
-      <c r="E175" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F175" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G175" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H175" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I175" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J175" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K175" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L175" s="2" t="inlineStr">
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G175" t="b">
+        <v>1</v>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I175" t="b">
+        <v>1</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K175" t="b">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="2" t="n">
+      <c r="A176" t="n">
         <v>5</v>
       </c>
-      <c r="B176" s="2" t="inlineStr">
+      <c r="B176" t="inlineStr">
         <is>
           <t>Propeller rotating too fast . Wind resistance affected . Return to home and land promptly . Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C176" s="2" t="inlineStr">
+      <c r="C176" t="inlineStr">
         <is>
           <t>ESC</t>
         </is>
       </c>
-      <c r="D176" s="2" t="n">
+      <c r="D176" t="n">
         <v>21</v>
       </c>
-      <c r="E176" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F176" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G176" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H176" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I176" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J176" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K176" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L176" s="2" t="inlineStr">
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G176" t="b">
+        <v>1</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I176" t="b">
+        <v>1</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K176" t="b">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="2" t="n">
+      <c r="A177" t="n">
         <v>5</v>
       </c>
-      <c r="B177" s="2" t="inlineStr">
+      <c r="B177" t="inlineStr">
         <is>
           <t>Propeller rotating too fast . Wind resistance affected . Return to home and land promptly . Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C177" s="2" t="inlineStr">
+      <c r="C177" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D177" s="2" t="n">
+      <c r="D177" t="n">
         <v>22</v>
       </c>
-      <c r="E177" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F177" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G177" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H177" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I177" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J177" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K177" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L177" s="2" t="inlineStr">
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G177" t="b">
+        <v>1</v>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I177" t="b">
+        <v>1</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K177" t="b">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="2" t="n">
+      <c r="A178" t="n">
         <v>5</v>
       </c>
-      <c r="B178" s="2" t="inlineStr">
+      <c r="B178" t="inlineStr">
         <is>
           <t>Propeller rotating too fast . Wind resistance affected . Return to home and land promptly . Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C178" s="2" t="inlineStr">
+      <c r="C178" t="inlineStr">
         <is>
           <t>warped</t>
         </is>
       </c>
-      <c r="D178" s="2" t="n">
+      <c r="D178" t="n">
         <v>23</v>
       </c>
-      <c r="E178" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F178" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G178" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H178" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I178" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J178" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K178" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L178" s="2" t="inlineStr">
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G178" t="b">
+        <v>1</v>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I178" t="b">
+        <v>1</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K178" t="b">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="2" t="n">
+      <c r="A179" t="n">
         <v>5</v>
       </c>
-      <c r="B179" s="2" t="inlineStr">
+      <c r="B179" t="inlineStr">
         <is>
           <t>Propeller rotating too fast . Wind resistance affected . Return to home and land promptly . Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C179" s="2" t="inlineStr">
+      <c r="C179" t="inlineStr">
         <is>
           <t>or</t>
         </is>
       </c>
-      <c r="D179" s="2" t="n">
+      <c r="D179" t="n">
         <v>24</v>
       </c>
-      <c r="E179" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F179" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G179" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H179" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I179" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J179" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K179" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L179" s="2" t="inlineStr">
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G179" t="b">
+        <v>1</v>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I179" t="b">
+        <v>1</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K179" t="b">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="2" t="n">
+      <c r="A180" t="n">
         <v>5</v>
       </c>
-      <c r="B180" s="2" t="inlineStr">
+      <c r="B180" t="inlineStr">
         <is>
           <t>Propeller rotating too fast . Wind resistance affected . Return to home and land promptly . Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C180" s="2" t="inlineStr">
+      <c r="C180" t="inlineStr">
         <is>
           <t>damaged</t>
         </is>
       </c>
-      <c r="D180" s="2" t="n">
+      <c r="D180" t="n">
         <v>25</v>
       </c>
-      <c r="E180" s="2" t="inlineStr">
+      <c r="E180" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F180" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G180" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H180" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I180" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J180" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K180" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L180" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G180" t="b">
+        <v>1</v>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I180" t="b">
+        <v>1</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K180" t="b">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-100_original/ori5/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-100_original/ori5/67/word_level_predictions_67.xlsx
@@ -3385,7 +3385,7 @@
       </c>
       <c r="F57" s="2" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G57" s="2" t="b">
@@ -3409,7 +3409,7 @@
       </c>
       <c r="L57" s="2" t="inlineStr">
         <is>
-          <t>Missed_B-NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4714,210 +4714,210 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="n">
+      <c r="A83" t="n">
         <v>2</v>
       </c>
-      <c r="B83" s="2" t="inlineStr">
+      <c r="B83" t="inlineStr">
         <is>
           <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C83" s="2" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t>Backward</t>
         </is>
       </c>
-      <c r="D83" s="2" t="n">
+      <c r="D83" t="n">
         <v>20</v>
       </c>
-      <c r="E83" s="2" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F83" s="2" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G83" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H83" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I83" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J83" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K83" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L83" s="2" t="inlineStr">
+      <c r="G83" t="b">
+        <v>1</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I83" t="b">
+        <v>1</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K83" t="b">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="n">
+      <c r="A84" t="n">
         <v>2</v>
       </c>
-      <c r="B84" s="2" t="inlineStr">
+      <c r="B84" t="inlineStr">
         <is>
           <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C84" s="2" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t>obstacle</t>
         </is>
       </c>
-      <c r="D84" s="2" t="n">
+      <c r="D84" t="n">
         <v>21</v>
       </c>
-      <c r="E84" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F84" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G84" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H84" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I84" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J84" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K84" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L84" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G84" t="b">
+        <v>1</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I84" t="b">
+        <v>1</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K84" t="b">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="2" t="n">
+      <c r="A85" t="n">
         <v>2</v>
       </c>
-      <c r="B85" s="2" t="inlineStr">
+      <c r="B85" t="inlineStr">
         <is>
           <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C85" s="2" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>avoidance</t>
         </is>
       </c>
-      <c r="D85" s="2" t="n">
+      <c r="D85" t="n">
         <v>22</v>
       </c>
-      <c r="E85" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F85" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G85" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H85" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I85" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J85" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K85" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L85" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G85" t="b">
+        <v>1</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I85" t="b">
+        <v>1</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K85" t="b">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="2" t="n">
+      <c r="A86" t="n">
         <v>2</v>
       </c>
-      <c r="B86" s="2" t="inlineStr">
+      <c r="B86" t="inlineStr">
         <is>
           <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C86" s="2" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t>unavailable</t>
         </is>
       </c>
-      <c r="D86" s="2" t="n">
+      <c r="D86" t="n">
         <v>23</v>
       </c>
-      <c r="E86" s="2" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F86" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G86" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H86" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I86" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J86" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K86" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L86" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G86" t="b">
+        <v>1</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I86" t="b">
+        <v>1</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K86" t="b">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9290,522 +9290,522 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="n">
+      <c r="A171" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B171" t="inlineStr">
+      <c r="B171" s="2" t="inlineStr">
         <is>
           <t>Propeller rotating too fast . Wind resistance affected . Return to home and land promptly . Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C171" t="inlineStr">
+      <c r="C171" s="2" t="inlineStr">
         <is>
           <t>Check</t>
         </is>
       </c>
-      <c r="D171" t="n">
+      <c r="D171" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="E171" t="inlineStr">
+      <c r="E171" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
+      <c r="F171" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G171" t="b">
-        <v>1</v>
-      </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I171" t="b">
-        <v>1</v>
-      </c>
-      <c r="J171" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K171" t="b">
-        <v>1</v>
-      </c>
-      <c r="L171" t="inlineStr">
+      <c r="G171" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H171" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I171" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J171" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K171" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L171" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="n">
+      <c r="A172" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B172" t="inlineStr">
+      <c r="B172" s="2" t="inlineStr">
         <is>
           <t>Propeller rotating too fast . Wind resistance affected . Return to home and land promptly . Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C172" t="inlineStr">
+      <c r="C172" s="2" t="inlineStr">
         <is>
           <t>whether</t>
         </is>
       </c>
-      <c r="D172" t="n">
+      <c r="D172" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G172" t="b">
-        <v>1</v>
-      </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I172" t="b">
-        <v>1</v>
-      </c>
-      <c r="J172" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K172" t="b">
-        <v>1</v>
-      </c>
-      <c r="L172" t="inlineStr">
+      <c r="E172" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F172" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G172" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H172" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I172" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J172" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K172" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L172" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="n">
+      <c r="A173" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B173" t="inlineStr">
+      <c r="B173" s="2" t="inlineStr">
         <is>
           <t>Propeller rotating too fast . Wind resistance affected . Return to home and land promptly . Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C173" t="inlineStr">
+      <c r="C173" s="2" t="inlineStr">
         <is>
           <t>propeller</t>
         </is>
       </c>
-      <c r="D173" t="n">
+      <c r="D173" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G173" t="b">
-        <v>1</v>
-      </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I173" t="b">
-        <v>1</v>
-      </c>
-      <c r="J173" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K173" t="b">
-        <v>1</v>
-      </c>
-      <c r="L173" t="inlineStr">
+      <c r="E173" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F173" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G173" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H173" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I173" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J173" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K173" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L173" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="n">
+      <c r="A174" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B174" t="inlineStr">
+      <c r="B174" s="2" t="inlineStr">
         <is>
           <t>Propeller rotating too fast . Wind resistance affected . Return to home and land promptly . Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C174" t="inlineStr">
+      <c r="C174" s="2" t="inlineStr">
         <is>
           <t>on</t>
         </is>
       </c>
-      <c r="D174" t="n">
+      <c r="D174" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G174" t="b">
-        <v>1</v>
-      </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I174" t="b">
-        <v>1</v>
-      </c>
-      <c r="J174" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K174" t="b">
-        <v>1</v>
-      </c>
-      <c r="L174" t="inlineStr">
+      <c r="E174" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F174" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G174" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H174" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I174" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J174" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K174" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L174" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="n">
+      <c r="A175" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B175" t="inlineStr">
+      <c r="B175" s="2" t="inlineStr">
         <is>
           <t>Propeller rotating too fast . Wind resistance affected . Return to home and land promptly . Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr">
+      <c r="C175" s="2" t="inlineStr">
         <is>
           <t>beeping</t>
         </is>
       </c>
-      <c r="D175" t="n">
+      <c r="D175" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G175" t="b">
-        <v>1</v>
-      </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I175" t="b">
-        <v>1</v>
-      </c>
-      <c r="J175" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K175" t="b">
-        <v>1</v>
-      </c>
-      <c r="L175" t="inlineStr">
+      <c r="E175" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F175" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G175" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H175" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I175" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J175" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K175" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L175" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="n">
+      <c r="A176" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B176" t="inlineStr">
+      <c r="B176" s="2" t="inlineStr">
         <is>
           <t>Propeller rotating too fast . Wind resistance affected . Return to home and land promptly . Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C176" t="inlineStr">
+      <c r="C176" s="2" t="inlineStr">
         <is>
           <t>ESC</t>
         </is>
       </c>
-      <c r="D176" t="n">
+      <c r="D176" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G176" t="b">
-        <v>1</v>
-      </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I176" t="b">
-        <v>1</v>
-      </c>
-      <c r="J176" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K176" t="b">
-        <v>1</v>
-      </c>
-      <c r="L176" t="inlineStr">
+      <c r="E176" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F176" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G176" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H176" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I176" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J176" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K176" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L176" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="n">
+      <c r="A177" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B177" t="inlineStr">
+      <c r="B177" s="2" t="inlineStr">
         <is>
           <t>Propeller rotating too fast . Wind resistance affected . Return to home and land promptly . Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C177" t="inlineStr">
+      <c r="C177" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D177" t="n">
+      <c r="D177" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G177" t="b">
-        <v>1</v>
-      </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I177" t="b">
-        <v>1</v>
-      </c>
-      <c r="J177" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K177" t="b">
-        <v>1</v>
-      </c>
-      <c r="L177" t="inlineStr">
+      <c r="E177" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F177" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G177" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H177" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I177" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J177" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K177" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L177" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="n">
+      <c r="A178" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B178" t="inlineStr">
+      <c r="B178" s="2" t="inlineStr">
         <is>
           <t>Propeller rotating too fast . Wind resistance affected . Return to home and land promptly . Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C178" t="inlineStr">
+      <c r="C178" s="2" t="inlineStr">
         <is>
           <t>warped</t>
         </is>
       </c>
-      <c r="D178" t="n">
+      <c r="D178" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G178" t="b">
-        <v>1</v>
-      </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I178" t="b">
-        <v>1</v>
-      </c>
-      <c r="J178" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K178" t="b">
-        <v>1</v>
-      </c>
-      <c r="L178" t="inlineStr">
+      <c r="E178" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F178" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G178" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H178" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I178" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J178" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K178" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L178" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="n">
+      <c r="A179" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B179" t="inlineStr">
+      <c r="B179" s="2" t="inlineStr">
         <is>
           <t>Propeller rotating too fast . Wind resistance affected . Return to home and land promptly . Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C179" t="inlineStr">
+      <c r="C179" s="2" t="inlineStr">
         <is>
           <t>or</t>
         </is>
       </c>
-      <c r="D179" t="n">
+      <c r="D179" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G179" t="b">
-        <v>1</v>
-      </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I179" t="b">
-        <v>1</v>
-      </c>
-      <c r="J179" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K179" t="b">
-        <v>1</v>
-      </c>
-      <c r="L179" t="inlineStr">
+      <c r="E179" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F179" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G179" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H179" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I179" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J179" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K179" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L179" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="n">
+      <c r="A180" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B180" t="inlineStr">
+      <c r="B180" s="2" t="inlineStr">
         <is>
           <t>Propeller rotating too fast . Wind resistance affected . Return to home and land promptly . Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr">
+      <c r="C180" s="2" t="inlineStr">
         <is>
           <t>damaged</t>
         </is>
       </c>
-      <c r="D180" t="n">
+      <c r="D180" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="E180" t="inlineStr">
+      <c r="E180" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G180" t="b">
-        <v>1</v>
-      </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I180" t="b">
-        <v>1</v>
-      </c>
-      <c r="J180" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K180" t="b">
-        <v>1</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F180" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G180" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H180" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I180" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J180" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K180" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L180" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
